--- a/Assets/10.Data/GameDataTable.xlsx
+++ b/Assets/10.Data/GameDataTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,103 +50,511 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>좀비 이동 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 이동 멈춤 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_Zombie_Move_Possibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_Zombie_Stay_Possibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비가 맵 타일에서 자연적으로 이동할 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비가 맵 타일에서 해당 타일에 유지될 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 좀비 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_SpecialZombie_Possibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 좀비 무리에 특수 좀비가 등장할 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 무리 개수 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 무리 개소 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_ZombieSwarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_ZombieSwarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 좀비 무리 등장 개수의 최솟값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 좀비 무리 등장 개수의 최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무리당 최소 개체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무리당 최대 개체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_ZombieObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_ZombieObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 좀비 무리의 등장 개체 수 최솟값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 좀비 무리의 등장 개체 수 최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막 타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산악 타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초원 타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로 타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도심 타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변 타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해변 타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>좀비 무리 관련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좀비 이동 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좀비 이동 멈춤 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_Zombie_Move_Possibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_Zombie_Stay_Possibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좀비가 맵 타일에서 자연적으로 이동할 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좀비가 맵 타일에서 해당 타일에 유지될 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수 좀비 등장 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_SpecialZombie_Possibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 좀비 무리에 특수 좀비가 등장할 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좀비 무리 개수 최소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좀비 무리 개소 최대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_MinCount_ZombieSwarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_MaxCount_ZombieSwarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 좀비 무리 등장 개수의 최솟값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 좀비 무리 등장 개수의 최대값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무리당 최소 개체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무리당 최대 개체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_MinCount_ZombieObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_MaxCount_ZombieObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 좀비 무리의 등장 개체 수 최솟값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 좀비 무리의 등장 개체 수 최대값</t>
+    <t>타일별
+자원 수집
+이벤트
+등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_Desert_ResourceEvent_Possibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_Mountain_ResourceEvent_Possibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_Grass_ResourceEvent_Possibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_Road_ResourceEvent_Possibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_City_ResourceEvent_Possibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_River_ResourceEvent_Possibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_Sea_ResourceEvent_Possibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막 타일에서 자원 수집 이벤트 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산악 타일에서 자원 수집 이벤트 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초원 타일에서 자원 수집 이벤트 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로 타일에서 자원 수집 이벤트 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도심 타일에서 자원 수집 이벤트 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변 타일에서 자원 수집 이벤트 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해변 타일에서 자원 수집 이벤트 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막 식량 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막 식량 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막 물 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막 물 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산악 식량 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산악 식량 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산악 물 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산악 물 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초원 식량 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초원 식량 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초원 물 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초원 물 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로 식량 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로 식량 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로 물 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도심 식량 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로 물 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도심 식량 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도심 물 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도심 물 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변 식량 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변 식량 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변 물 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변 물 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해변 식량 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해변 식량 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해변 물 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해변 물 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_Desert_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_Desert_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_Desert_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_Desert_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_Mountain_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_Mountain_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_Mountain_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_Mountain_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_Grass_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_Grass_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_Grass_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_Grass_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_Road_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_Road_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_Road_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_Road_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_City_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_City_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_City_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_City_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_River_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_River_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_River_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_River_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_Sea_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_Sea_Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MinCount_Sea_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_MaxCount_Sea_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막 타일에서 이벤트로 얻을 수 있는 최소 식량값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산악 타일에서 이벤트로 얻을 수 있는 최소 식량값</t>
+  </si>
+  <si>
+    <t>산악 타일에서 이벤트로 얻을 수 있는 최대 식량값</t>
+  </si>
+  <si>
+    <t>초원 타일에서 이벤트로 얻을 수 있는 최소 식량값</t>
+  </si>
+  <si>
+    <t>초원 타일에서 이벤트로 얻을 수 있는 최대 식량값</t>
+  </si>
+  <si>
+    <t>도로 타일에서 이벤트로 얻을 수 있는 최소 식량값</t>
+  </si>
+  <si>
+    <t>도로 타일에서 이벤트로 얻을 수 있는 최대 식량값</t>
+  </si>
+  <si>
+    <t>도심 타일에서 이벤트로 얻을 수 있는 최소 식량값</t>
+  </si>
+  <si>
+    <t>도심 타일에서 이벤트로 얻을 수 있는 최대 식량값</t>
+  </si>
+  <si>
+    <t>강변 타일에서 이벤트로 얻을 수 있는 최소 식량값</t>
+  </si>
+  <si>
+    <t>강변 타일에서 이벤트로 얻을 수 있는 최대 식량값</t>
+  </si>
+  <si>
+    <t>해변 타일에서 이벤트로 얻을 수 있는 최소 식량값</t>
+  </si>
+  <si>
+    <t>해변 타일에서 이벤트로 얻을 수 있는 최대 식량값</t>
+  </si>
+  <si>
+    <t>사막 타일에서 이벤트로 얻을 수 있는 최대 식량값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막 타일에서 이벤트로 얻을 수 있는 최소 물값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막 타일에서 이벤트로 얻을 수 있는 최대 물값</t>
+  </si>
+  <si>
+    <t>산악 타일에서 이벤트로 얻을 수 있는 최소 물값</t>
+  </si>
+  <si>
+    <t>산악 타일에서 이벤트로 얻을 수 있는 최대 물값</t>
+  </si>
+  <si>
+    <t>초원 타일에서 이벤트로 얻을 수 있는 최소 물값</t>
+  </si>
+  <si>
+    <t>초원 타일에서 이벤트로 얻을 수 있는 최대 물값</t>
+  </si>
+  <si>
+    <t>도로 타일에서 이벤트로 얻을 수 있는 최소 물값</t>
+  </si>
+  <si>
+    <t>도로 타일에서 이벤트로 얻을 수 있는 최대 물값</t>
+  </si>
+  <si>
+    <t>도심 타일에서 이벤트로 얻을 수 있는 최소 물값</t>
+  </si>
+  <si>
+    <t>도심 타일에서 이벤트로 얻을 수 있는 최대 물값</t>
+  </si>
+  <si>
+    <t>강변 타일에서 이벤트로 얻을 수 있는 최소 물값</t>
+  </si>
+  <si>
+    <t>강변 타일에서 이벤트로 얻을 수 있는 최대 물값</t>
+  </si>
+  <si>
+    <t>해변 타일에서 이벤트로 얻을 수 있는 최소 물값</t>
+  </si>
+  <si>
+    <t>해변 타일에서 이벤트로 얻을 수 있는 최대 물값</t>
+  </si>
+  <si>
+    <t>타일별
+자원 수집
+최소 최댓값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +579,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +601,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,37 +693,64 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,16 +1044,16 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="6" max="6" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -615,16 +1062,16 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>13</v>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
@@ -632,384 +1079,1050 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="6">
+        <v>1001</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>50</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
-        <v>1001</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C4" s="6">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E4" s="6">
         <v>50</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1002</v>
-      </c>
-      <c r="D4" s="10" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1003</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6">
         <v>10</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1004</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1005</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1006</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1007</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1008</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1009</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1010</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="14">
+        <v>7</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1011</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="14">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1012</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="14">
+        <v>25</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1003</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="10">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1013</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="14">
         <v>10</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1004</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="10">
-        <v>10</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1005</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10">
-        <v>20</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1006</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="F15" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1014</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="14">
+        <v>7</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1016</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1007</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10">
-        <v>30</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <v>1008</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
-        <v>1009</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <v>1010</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>1011</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
-        <v>1012</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <v>1013</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
-        <v>1014</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
-        <v>1015</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
-        <v>1016</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="20" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="19">
         <v>1017</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="19">
         <v>1018</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="19">
         <v>1019</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="19">
         <v>1020</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="19">
         <v>1021</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="19">
         <v>1022</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="19">
+        <v>2</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="19">
         <v>1023</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="19">
         <v>1024</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="19">
+        <v>2</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="19">
         <v>1025</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="19">
         <v>1026</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="19">
         <v>1027</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="19">
         <v>1028</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="8"/>
+      <c r="D30" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="19">
         <v>1029</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="19">
         <v>1030</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="8"/>
+      <c r="D32" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="19">
+        <v>2</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="19">
         <v>1031</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="8"/>
+      <c r="D33" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1032</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="19">
+        <v>3</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1033</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1034</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="19">
+        <v>3</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="19">
+        <v>1035</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1036</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="19">
+        <v>1037</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="19">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1038</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="19">
+        <v>3</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="19">
+        <v>1039</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1040</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1041</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="19">
+        <v>1042</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="19">
+        <v>2</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4">
+        <v>1043</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4">
+        <v>1044</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4">
+        <v>1045</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4">
+        <v>1046</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4">
+        <v>1047</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4">
+        <v>1048</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4">
+        <v>1049</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4">
+        <v>1050</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4">
+        <v>1051</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4">
+        <v>1052</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4">
+        <v>1053</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4">
+        <v>1054</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4">
+        <v>1055</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4">
+        <v>1056</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4">
+        <v>1057</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4">
+        <v>1058</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4">
+        <v>1059</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4">
+        <v>1060</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4">
+        <v>1061</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4">
+        <v>1062</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4">
+        <v>1063</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4">
+        <v>1064</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4">
+        <v>1065</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4">
+        <v>1066</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4">
+        <v>1067</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4">
+        <v>1068</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4">
+        <v>1069</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A17:A44"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
